--- a/Result/20250214_Percentage_Mulitple_GSA/res_20250214_Percetange_Mulitple_GSAs_IEEE_118.xlsx
+++ b/Result/20250214_Percentage_Mulitple_GSA/res_20250214_Percetange_Mulitple_GSAs_IEEE_118.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitbacin-my.sharepoint.com/personal/214070018_iitb_ac_in/Documents/Desktop/SRSE_Simulation/Result/20250214_Percentage_Mulitple_GSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8F70AAE-A1A5-4746-ACA4-B406DFD37029}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="ieee118" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>LSE_PA_mean</t>
   </si>
@@ -400,13 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.10062651336193085</v>
       </c>
@@ -440,7 +442,7 @@
         <v>315.48583984375</v>
       </c>
       <c r="C2">
-        <v>0.001312127336859703</v>
+        <v>1.3121273368597031E-3</v>
       </c>
       <c r="D2">
         <v>0.14951126277446747</v>
@@ -452,13 +454,13 @@
         <v>416.24468994140625</v>
       </c>
       <c r="G2">
-        <v>0.0014719234313815832</v>
+        <v>1.4719234313815832E-3</v>
       </c>
       <c r="H2">
         <v>0.15605202317237854</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.23041509091854095</v>
       </c>
@@ -466,7 +468,7 @@
         <v>1652.4747314453125</v>
       </c>
       <c r="C3">
-        <v>0.001481225830502808</v>
+        <v>1.4812258305028081E-3</v>
       </c>
       <c r="D3">
         <v>0.15000703930854797</v>
@@ -475,94 +477,94 @@
         <v>0.10154291242361069</v>
       </c>
       <c r="F3">
-        <v>393.3855285644531</v>
+        <v>393.38552856445313</v>
       </c>
       <c r="G3">
-        <v>0.0014686902286484838</v>
+        <v>1.4686902286484838E-3</v>
       </c>
       <c r="H3">
         <v>0.15553386509418488</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.2366657853126526</v>
+        <v>0.23666578531265259</v>
       </c>
       <c r="B4">
         <v>1743.3172607421875</v>
       </c>
       <c r="C4">
-        <v>0.0014786187093704939</v>
+        <v>1.4786187093704939E-3</v>
       </c>
       <c r="D4">
-        <v>0.1518639773130417</v>
+        <v>0.15186397731304169</v>
       </c>
       <c r="E4">
-        <v>0.09918520599603653</v>
+        <v>9.918520599603653E-2</v>
       </c>
       <c r="F4">
         <v>368.948974609375</v>
       </c>
       <c r="G4">
-        <v>0.0014754740986973047</v>
+        <v>1.4754740986973047E-3</v>
       </c>
       <c r="H4">
         <v>0.14517924189567566</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.2916620969772339</v>
+        <v>0.29166209697723389</v>
       </c>
       <c r="B5">
         <v>2647.25048828125</v>
       </c>
       <c r="C5">
-        <v>0.0015545967034995556</v>
+        <v>1.5545967034995556E-3</v>
       </c>
       <c r="D5">
         <v>0.12122199684381485</v>
       </c>
       <c r="E5">
-        <v>0.09913181513547897</v>
+        <v>9.9131815135478973E-2</v>
       </c>
       <c r="F5">
-        <v>352.7859191894531</v>
+        <v>352.78591918945313</v>
       </c>
       <c r="G5">
-        <v>0.0014724165666848421</v>
+        <v>1.4724165666848421E-3</v>
       </c>
       <c r="H5">
         <v>0.1536790132522583</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.3023566007614136</v>
+        <v>0.30235660076141357</v>
       </c>
       <c r="B6">
         <v>2844.920166015625</v>
       </c>
       <c r="C6">
-        <v>0.0016525619430467486</v>
+        <v>1.6525619430467486E-3</v>
       </c>
       <c r="D6">
-        <v>0.1812458485364914</v>
+        <v>0.18124584853649139</v>
       </c>
       <c r="E6">
-        <v>0.09855000674724579</v>
+        <v>9.8550006747245789E-2</v>
       </c>
       <c r="F6">
-        <v>347.8810119628906</v>
+        <v>347.88101196289063</v>
       </c>
       <c r="G6">
-        <v>0.0014670448144897819</v>
+        <v>1.4670448144897819E-3</v>
       </c>
       <c r="H6">
         <v>0.14208287000656128</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.29368332028388977</v>
       </c>
@@ -570,25 +572,25 @@
         <v>2684.047607421875</v>
       </c>
       <c r="C7">
-        <v>0.0016541453078389168</v>
+        <v>1.6541453078389168E-3</v>
       </c>
       <c r="D7">
         <v>0.12028341740369797</v>
       </c>
       <c r="E7">
-        <v>0.09751362353563309</v>
+        <v>9.7513623535633087E-2</v>
       </c>
       <c r="F7">
-        <v>349.6891174316406</v>
+        <v>349.68911743164063</v>
       </c>
       <c r="G7">
-        <v>0.0014688125811517239</v>
+        <v>1.4688125811517239E-3</v>
       </c>
       <c r="H7">
         <v>0.13793480396270752</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.2806708812713623</v>
       </c>
@@ -596,51 +598,51 @@
         <v>2451.6474609375</v>
       </c>
       <c r="C8">
-        <v>0.0017497839871793985</v>
+        <v>1.7497839871793985E-3</v>
       </c>
       <c r="D8">
-        <v>0.04004553332924843</v>
+        <v>4.0045533329248428E-2</v>
       </c>
       <c r="E8">
-        <v>0.09801463037729263</v>
+        <v>9.8014630377292633E-2</v>
       </c>
       <c r="F8">
         <v>351.609130859375</v>
       </c>
       <c r="G8">
-        <v>0.0014689585659652948</v>
+        <v>1.4689585659652948E-3</v>
       </c>
       <c r="H8">
-        <v>0.03122377209365368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>3.1223772093653679E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.2782210409641266</v>
+        <v>0.27822104096412659</v>
       </c>
       <c r="B9">
         <v>2409.035888671875</v>
       </c>
       <c r="C9">
-        <v>0.0015780854737386107</v>
+        <v>1.5780854737386107E-3</v>
       </c>
       <c r="D9">
-        <v>0.03301754966378212</v>
+        <v>3.301754966378212E-2</v>
       </c>
       <c r="E9">
-        <v>0.09895390272140503</v>
+        <v>9.8953902721405029E-2</v>
       </c>
       <c r="F9">
-        <v>360.7027893066406</v>
+        <v>360.70278930664063</v>
       </c>
       <c r="G9">
-        <v>0.0014765749219805002</v>
+        <v>1.4765749219805002E-3</v>
       </c>
       <c r="H9">
-        <v>0.029911383986473083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>2.9911383986473083E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.24323418736457825</v>
       </c>
@@ -648,36 +650,36 @@
         <v>1841.3919677734375</v>
       </c>
       <c r="C10">
-        <v>0.0015735822962597013</v>
+        <v>1.5735822962597013E-3</v>
       </c>
       <c r="D10">
-        <v>0.03535470366477966</v>
+        <v>3.5354703664779663E-2</v>
       </c>
       <c r="E10">
-        <v>0.09921757876873016</v>
+        <v>9.9217578768730164E-2</v>
       </c>
       <c r="F10">
         <v>362.9288330078125</v>
       </c>
       <c r="G10">
-        <v>0.0014669977826997638</v>
+        <v>1.4669977826997638E-3</v>
       </c>
       <c r="H10">
-        <v>0.03316127136349678</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>3.316127136349678E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.2265581637620926</v>
+        <v>0.22655816376209259</v>
       </c>
       <c r="B11">
         <v>1597.6612548828125</v>
       </c>
       <c r="C11">
-        <v>0.0014545982703566551</v>
+        <v>1.4545982703566551E-3</v>
       </c>
       <c r="D11">
-        <v>0.03153229132294655</v>
+        <v>3.1532291322946548E-2</v>
       </c>
       <c r="E11">
         <v>0.1013951450586319</v>
@@ -686,39 +688,39 @@
         <v>393.19451904296875</v>
       </c>
       <c r="G11">
-        <v>0.0014754165895283222</v>
+        <v>1.4754165895283222E-3</v>
       </c>
       <c r="H11">
-        <v>0.03399433568120003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>3.3994335681200027E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.13786548376083374</v>
       </c>
       <c r="B12">
-        <v>591.9852905273438</v>
+        <v>591.98529052734375</v>
       </c>
       <c r="C12">
-        <v>0.0013434914872050285</v>
+        <v>1.3434914872050285E-3</v>
       </c>
       <c r="D12">
-        <v>0.02596624754369259</v>
+        <v>2.5966247543692589E-2</v>
       </c>
       <c r="E12">
         <v>0.10122507810592651</v>
       </c>
       <c r="F12">
-        <v>397.0857849121094</v>
+        <v>397.08578491210938</v>
       </c>
       <c r="G12">
-        <v>0.0014670647215098143</v>
+        <v>1.4670647215098143E-3</v>
       </c>
       <c r="H12">
-        <v>0.02782323770225048</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>2.7823237702250481E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.10056346654891968</v>
       </c>
@@ -726,10 +728,10 @@
         <v>315.0899658203125</v>
       </c>
       <c r="C13">
-        <v>0.0013087423285469413</v>
+        <v>1.3087423285469413E-3</v>
       </c>
       <c r="D13">
-        <v>0.03271228447556496</v>
+        <v>3.2712284475564957E-2</v>
       </c>
       <c r="E13">
         <v>0.10178704559803009</v>
@@ -738,10 +740,50 @@
         <v>400.75225830078125</v>
       </c>
       <c r="G13">
-        <v>0.0014683410990983248</v>
+        <v>1.4683410990983248E-3</v>
       </c>
       <c r="H13">
-        <v>0.03575734421610832</v>
+        <v>3.5757344216108322E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0.23041509091854095</v>
+      </c>
+      <c r="D19">
+        <v>0.10154291242361069</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0.23666578531265259</v>
+      </c>
+      <c r="D20">
+        <v>9.918520599603653E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0.29166209697723389</v>
+      </c>
+      <c r="D21">
+        <v>9.9131815135478973E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0.30235660076141357</v>
+      </c>
+      <c r="D22">
+        <v>9.8550006747245789E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0.29368332028388977</v>
+      </c>
+      <c r="D23">
+        <v>9.7513623535633087E-2</v>
       </c>
     </row>
   </sheetData>
